--- a/KSIDC_CustomerPortal/src/test/resources/TestData4.xlsx
+++ b/KSIDC_CustomerPortal/src/test/resources/TestData4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_KSIDC\KSIDC_CustomerPortal-master\AI_Beacon_KSIDC_CustomerPortal\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrilesha.shelke\git\repository3\KSIDC_CustomerPortal\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42641672-B90A-4D7E-B6E5-023A3C759AEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F473721-8EFC-4103-85A6-E8BBD66B7E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="KSIDC_Business_Enterpreneur" sheetId="22" r:id="rId12"/>
     <sheet name="KSIDC_Business_Entity" sheetId="23" r:id="rId13"/>
     <sheet name="KSIDC_Entity_Doc_Upload" sheetId="25" r:id="rId14"/>
+    <sheet name="KSIDC_Means_Of_Finance" sheetId="26" r:id="rId15"/>
+    <sheet name="KSIDC_Security_Plant_Machinery" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="314">
   <si>
     <t>Yes</t>
   </si>
@@ -959,6 +961,27 @@
   </si>
   <si>
     <t>ASJRT6677L</t>
+  </si>
+  <si>
+    <t>Means_Of_Finance_Module</t>
+  </si>
+  <si>
+    <t>ShareCapital</t>
+  </si>
+  <si>
+    <t>InternalAccurals</t>
+  </si>
+  <si>
+    <t>UnsecuredLoan</t>
+  </si>
+  <si>
+    <t>IncentivesAndGrants</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Security_Plant_Machinary_Module</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1866,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,6 +1888,110 @@
       </c>
       <c r="B2" t="s">
         <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16081E56-B051-43E1-AE85-00EA28BED748}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45E8E94-5077-47FF-9330-E51542FFD54F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2740,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611AC62-88B6-4574-96F4-08E92BDC9573}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
